--- a/json_max.xlsx
+++ b/json_max.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB6FC9C-E511-4F12-A48F-17DC4B84497E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CF58DB-A1CC-42D4-97F6-D67397542984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30465" yWindow="2865" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,30 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>*Покаяние.* Отче наш, Отец Небесный, прошу Тебя простить все мои прегрешения, вольные и невольные. Аминь!.*Молитва.*ОТЧЕ НАШ, ОТЕЦ НЕБЕСНЫЙ, Я ПРИНИМАЮ ВЕРУ ТВОЮ, ОНА ЕСТЬ МОЙ ПУТЬ, Я ПРИНИМАЮ КАНОНЫ ТВОИ ВЕЧНЫЕ, С ЛЮБОВЬЮ К ТЕБЕ И ДЕЛАМ ТВОИМ, ПОДТВЕРЖДАЯ СВОЕЙ ЖИЗНЬЮ ВЕРНОСТЬ ТЕБЕ. ГОСПОДИ, ПРОШУ ДАТЬ МНЕ НАДЕЖДУ НА СПАСЕНИЕ ДУШИ МОЕЙ, И ДАРОВАТЬ МУДРОСТЬ ТВОЮ ДЛЯ ЖИЗНИ МОЕЙ ЗДЕСЬ, НА ПЛАНЕТЕ СВЯТАЯ РУСЬ И В ВЕЧНОСТИ. ПУСТЬ СВЯТА БУДЕТ УВЕРЕННОСТЬ МОЯ, ЧТО ТЫ ЕСМЬ! Господи, я Люблю Тебя, Благодарю Тебя и Уповаю на Милость Твою! Аминь!</t>
+    <t>Посыл / Заповедь</t>
   </si>
   <si>
-    <t>*Отче наш, Отец Небесный! Волею Создателя, Пророка и Народа Пространство СВЯТАЯ РУСЬ ЕСМЬ Любовь, и Так Будет Навечно!*</t>
+    <t>Время (мск)</t>
   </si>
   <si>
-    <t>10:55-11:0</t>
+    <t>№</t>
   </si>
   <si>
-    <t>2:55-3:0</t>
+    <t>U2FsdGVkX1+uSMZWPh9qT+dXpFUxouwT+4p0znZbKwHwZnJH37GSiCeCmdRsRdYBpFjz6yycSGEHbXPiOZQSOgx25Ak70aJLQqHrB98ER2HZyEE1omZZ3yIMIgqEqcXF3s1kW1Fwo7RiKjFJ0kzFfVergxEiftrNFpSNdTib9ol+4Yt5vs8BGAuVZMfZhWq6aK3dyvHQk+ZJLCt0jDT/JZ64obTFWcIKQ2p6mc0gTlji+Rmh7bnonmKScPBEL4OjfMJId+hWCfWJ6Yjp2ZqsKVKWMSrgDfSxFv3FP50XMyjL1FP7S2rQTc9+JjePWzSi7RHlbX1+mRuCaqmY164GROmMnTqSaSkS8odllccGmDoc5H6WhVfKE6TV3r6cuZWX7u6sdPEvVf3w2IsoQi7ZB0AebPrcf88T8KbjFeFcGsmSgQVpQ0+u8cbJ7WlPMHQxBKh7kIxf+pGnbmiVLBjnfwOo/cSlyxxNEHSveN3/Xu5C6EJCe9+yiwtKhKFynSjClM/56la5ZAC+mNeEfqmZtMAbXC3d4PWE9QcJ9Oqa7JdnTby8HC5YYEmCThqLBd7Lcw4Lk/JJRUPg9MM8kJ+3W0RM4H33vp4LQn0MrZKC2mDmmXUtxNpHWJTuErBOjRoydThNbnoIJ8nMsm+dBHpv5oj9JeDd77mw524WEs8j0p1TUOWghTGfj76BsZEGJ6P1PFSSNIB9y9+3rkzCebzEGbhH2+eL8yomOWJxSAxJqGA4EPTqTbw1Dl3uH58VajHho1d3buD0fS297IPu6pLJKuTaUlvlgdLxtdnlhQkW+LVZKyOzyIh3B8MKlkdHOQNzY4ib+sn0xQJj4mNbVtZ5slwRJko3Iklrh666byXqUniklEYABJh80MJ0ojjyWld1F6GJRVxX6ZwndnFoOGMDm0JwpMejwvqnoDMhR/G5wgqDkG/JnbaQHnPj4W7AiWLkln+u1fADEi6Vyinrxg3x1CZWfCSorW3Jg+nQN1H4K31XgDbhqNUcr28qxOW//hzyQvlWN4DY6NngfuUdIUWx2hmp5sx0Ev93IwRGEJ2UxK5due/vdDp7rOeUtxdLhP9vE5pwYqgISkt7N/9aUt3r7w887VdlBuDWg2YgG4+0cLVnoAJhptrKhXljErWA4gLrUTdnbotHwulTY3WBHP0YKKGLAVVa2hA8vB9U9fmm+lgyukO5bpHHeKrbUCjupZgA8MtcO4JkLePicUCh0Dd2xx0F8VRXC5ZOnF6h9S8myqnbxqvMqyYgGJ3agqFOfjYo+N3NETW9tZQUaOfWMeSFGX8BqVhhzWwT0fDN4OsealA=</t>
   </si>
   <si>
-    <t>11:0-11:5</t>
-  </si>
-  <si>
-    <t>3:0-3:5</t>
-  </si>
-  <si>
-    <t>18:55-19:0</t>
-  </si>
-  <si>
-    <t>19:0-19:5</t>
+    <t>U2FsdGVkX1/gIUGEizncYlSscEtCg92aHZMTBJALFwc=</t>
   </si>
 </sst>
 </file>
@@ -64,12 +55,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,8 +81,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -366,65 +369,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="95.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/json_max.xlsx
+++ b/json_max.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CF58DB-A1CC-42D4-97F6-D67397542984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12016244-215D-4992-A281-3F9A65E074F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30465" yWindow="2865" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <t>U2FsdGVkX1+uSMZWPh9qT+dXpFUxouwT+4p0znZbKwHwZnJH37GSiCeCmdRsRdYBpFjz6yycSGEHbXPiOZQSOgx25Ak70aJLQqHrB98ER2HZyEE1omZZ3yIMIgqEqcXF3s1kW1Fwo7RiKjFJ0kzFfVergxEiftrNFpSNdTib9ol+4Yt5vs8BGAuVZMfZhWq6aK3dyvHQk+ZJLCt0jDT/JZ64obTFWcIKQ2p6mc0gTlji+Rmh7bnonmKScPBEL4OjfMJId+hWCfWJ6Yjp2ZqsKVKWMSrgDfSxFv3FP50XMyjL1FP7S2rQTc9+JjePWzSi7RHlbX1+mRuCaqmY164GROmMnTqSaSkS8odllccGmDoc5H6WhVfKE6TV3r6cuZWX7u6sdPEvVf3w2IsoQi7ZB0AebPrcf88T8KbjFeFcGsmSgQVpQ0+u8cbJ7WlPMHQxBKh7kIxf+pGnbmiVLBjnfwOo/cSlyxxNEHSveN3/Xu5C6EJCe9+yiwtKhKFynSjClM/56la5ZAC+mNeEfqmZtMAbXC3d4PWE9QcJ9Oqa7JdnTby8HC5YYEmCThqLBd7Lcw4Lk/JJRUPg9MM8kJ+3W0RM4H33vp4LQn0MrZKC2mDmmXUtxNpHWJTuErBOjRoydThNbnoIJ8nMsm+dBHpv5oj9JeDd77mw524WEs8j0p1TUOWghTGfj76BsZEGJ6P1PFSSNIB9y9+3rkzCebzEGbhH2+eL8yomOWJxSAxJqGA4EPTqTbw1Dl3uH58VajHho1d3buD0fS297IPu6pLJKuTaUlvlgdLxtdnlhQkW+LVZKyOzyIh3B8MKlkdHOQNzY4ib+sn0xQJj4mNbVtZ5slwRJko3Iklrh666byXqUniklEYABJh80MJ0ojjyWld1F6GJRVxX6ZwndnFoOGMDm0JwpMejwvqnoDMhR/G5wgqDkG/JnbaQHnPj4W7AiWLkln+u1fADEi6Vyinrxg3x1CZWfCSorW3Jg+nQN1H4K31XgDbhqNUcr28qxOW//hzyQvlWN4DY6NngfuUdIUWx2hmp5sx0Ev93IwRGEJ2UxK5due/vdDp7rOeUtxdLhP9vE5pwYqgISkt7N/9aUt3r7w887VdlBuDWg2YgG4+0cLVnoAJhptrKhXljErWA4gLrUTdnbotHwulTY3WBHP0YKKGLAVVa2hA8vB9U9fmm+lgyukO5bpHHeKrbUCjupZgA8MtcO4JkLePicUCh0Dd2xx0F8VRXC5ZOnF6h9S8myqnbxqvMqyYgGJ3agqFOfjYo+N3NETW9tZQUaOfWMeSFGX8BqVhhzWwT0fDN4OsealA=</t>
   </si>
   <si>
-    <t>U2FsdGVkX1/gIUGEizncYlSscEtCg92aHZMTBJALFwc=</t>
+    <t>13:15-13:20</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/json_max.xlsx
+++ b/json_max.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12016244-215D-4992-A281-3F9A65E074F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ADD355-CD62-462B-813B-6262406F1200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30465" yWindow="2865" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
     <t>№</t>
   </si>
   <si>
-    <t>U2FsdGVkX1+uSMZWPh9qT+dXpFUxouwT+4p0znZbKwHwZnJH37GSiCeCmdRsRdYBpFjz6yycSGEHbXPiOZQSOgx25Ak70aJLQqHrB98ER2HZyEE1omZZ3yIMIgqEqcXF3s1kW1Fwo7RiKjFJ0kzFfVergxEiftrNFpSNdTib9ol+4Yt5vs8BGAuVZMfZhWq6aK3dyvHQk+ZJLCt0jDT/JZ64obTFWcIKQ2p6mc0gTlji+Rmh7bnonmKScPBEL4OjfMJId+hWCfWJ6Yjp2ZqsKVKWMSrgDfSxFv3FP50XMyjL1FP7S2rQTc9+JjePWzSi7RHlbX1+mRuCaqmY164GROmMnTqSaSkS8odllccGmDoc5H6WhVfKE6TV3r6cuZWX7u6sdPEvVf3w2IsoQi7ZB0AebPrcf88T8KbjFeFcGsmSgQVpQ0+u8cbJ7WlPMHQxBKh7kIxf+pGnbmiVLBjnfwOo/cSlyxxNEHSveN3/Xu5C6EJCe9+yiwtKhKFynSjClM/56la5ZAC+mNeEfqmZtMAbXC3d4PWE9QcJ9Oqa7JdnTby8HC5YYEmCThqLBd7Lcw4Lk/JJRUPg9MM8kJ+3W0RM4H33vp4LQn0MrZKC2mDmmXUtxNpHWJTuErBOjRoydThNbnoIJ8nMsm+dBHpv5oj9JeDd77mw524WEs8j0p1TUOWghTGfj76BsZEGJ6P1PFSSNIB9y9+3rkzCebzEGbhH2+eL8yomOWJxSAxJqGA4EPTqTbw1Dl3uH58VajHho1d3buD0fS297IPu6pLJKuTaUlvlgdLxtdnlhQkW+LVZKyOzyIh3B8MKlkdHOQNzY4ib+sn0xQJj4mNbVtZ5slwRJko3Iklrh666byXqUniklEYABJh80MJ0ojjyWld1F6GJRVxX6ZwndnFoOGMDm0JwpMejwvqnoDMhR/G5wgqDkG/JnbaQHnPj4W7AiWLkln+u1fADEi6Vyinrxg3x1CZWfCSorW3Jg+nQN1H4K31XgDbhqNUcr28qxOW//hzyQvlWN4DY6NngfuUdIUWx2hmp5sx0Ev93IwRGEJ2UxK5due/vdDp7rOeUtxdLhP9vE5pwYqgISkt7N/9aUt3r7w887VdlBuDWg2YgG4+0cLVnoAJhptrKhXljErWA4gLrUTdnbotHwulTY3WBHP0YKKGLAVVa2hA8vB9U9fmm+lgyukO5bpHHeKrbUCjupZgA8MtcO4JkLePicUCh0Dd2xx0F8VRXC5ZOnF6h9S8myqnbxqvMqyYgGJ3agqFOfjYo+N3NETW9tZQUaOfWMeSFGX8BqVhhzWwT0fDN4OsealA=</t>
+    <t>13:15-13:20</t>
   </si>
   <si>
-    <t>13:15-13:20</t>
+    <t>U2FsdGVkX1+IuIj1EkUoq5H/fWdtmWJJDlHwdRSVK/riF3fe3k79mZBMQsa2D3Cw4TBiZR5N327jbmal/0QTiSFryMdQh937Ohds9V0Tv7QUvA1LyNtmBhl9iEEFMV9wqGKMbg51r+SFA/J9C8i60wE51ZvuHoZQtaEfqNjCnkp8wQHkKDAZZE8AybBsZrsXGdjmx/G6oYBhi+KJSIzT+wy8AzPlJw47/sdcWugUfI0UIxpLqBhg5HJ9XF0PjV9iDNH4LdRRJZtRI9G5QT06Gr4fO9PgQrojRi83U8414QLHl55i7CGHR5JtLMgBh6z9hCqywrGYFpvxNU940kyefpqal3xtZ/tKDRlOvjc3znl+bVeeqJvx9HJGirw2e430MN1SPKYEr3nhdJbnkXriIpU31zcf3rU2PY5OpLXXtUEeCHQGI6+/qZhvhCudmbp54mDCTGfutjwYhls3aUImnTfhFa30/vpZ3L670m0IjxhBOajp8/DNkIwcwuVhp/fYyhHh0O9EzVje4ZmVQP8r/Gp8pF3nKtW9Sq6IiCc8p2kOYbv2yW3dX3dU+NMDIpfs9TMYamkqbwnaUf9m8qXBW/FCA3Hwaw8pPT83bQKnsIJ1LBzMgCUi9kyNg98GV5JqPXPG5WaWuhDh0fnMOc5Ry7Y3ys+E2V70HFRAJClKw9XktEUOKIK8bx8ITqMxTVg+v3K7C+lPrHqzQlP0sExaSZK596vvoZ1WGVWCSg6Z6JjWOV1RFFQYHfOWosNLc7j3xa/IP61CjxDRZOPF8K98iciS9LMldOTeMmqJzRmhjg/k8do3yDqt3yYnMID7B5+sbRBcRsDnR2BMptey580hczPa00tWwdYOpd/8DDX7j9wD3qmlPxbvUZRMDH03XpXxAnX8IfgZfeKQBIwnCBK8oVte5dObhF2gXX33S8o+l46ku9qfLokzQTyN0jt6hJw0qI0bafdopY3kEo9/MevGuLxHTWMGFXDBtNWscxrfNO4CbFILt2iO3kBThBA4cJO8x9T9DA9gkbUfKhFrJ2TM61DkYSDr1vVgIcrTSDphBiYhj4GYXMGZ9N5u5yX4L7FaFIEuyKy7odYK2vy5FyJnDlQvkq+GYdhgfPhWL6Fc7BeF0DN4Kn+flyDlERrYhu+EYDmzbpCTD/7dgp7ld2Vj/vKINAlpOlKuZ0p0gFoNAjFCN9ZmyQ1Yc6DSrdLf40fMfFrHv2MtgeFmeuvzN82Q4EZUA+/4+AjwsdLJEY2bX1bV3sg+o0lWNVFdECCdcW6Ib7tq/lzkrJrUgZXN2bOGRSjfvxdcBj8e1zRhj/nTtjM=</t>
   </si>
 </sst>
 </file>
@@ -396,10 +396,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/json_max.xlsx
+++ b/json_max.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ADD355-CD62-462B-813B-6262406F1200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1C0C90-8B29-4F76-85C3-B472397BA96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Посыл / Заповедь</t>
   </si>
@@ -36,10 +36,28 @@
     <t>№</t>
   </si>
   <si>
-    <t>13:15-13:20</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX1+IuIj1EkUoq5H/fWdtmWJJDlHwdRSVK/riF3fe3k79mZBMQsa2D3Cw4TBiZR5N327jbmal/0QTiSFryMdQh937Ohds9V0Tv7QUvA1LyNtmBhl9iEEFMV9wqGKMbg51r+SFA/J9C8i60wE51ZvuHoZQtaEfqNjCnkp8wQHkKDAZZE8AybBsZrsXGdjmx/G6oYBhi+KJSIzT+wy8AzPlJw47/sdcWugUfI0UIxpLqBhg5HJ9XF0PjV9iDNH4LdRRJZtRI9G5QT06Gr4fO9PgQrojRi83U8414QLHl55i7CGHR5JtLMgBh6z9hCqywrGYFpvxNU940kyefpqal3xtZ/tKDRlOvjc3znl+bVeeqJvx9HJGirw2e430MN1SPKYEr3nhdJbnkXriIpU31zcf3rU2PY5OpLXXtUEeCHQGI6+/qZhvhCudmbp54mDCTGfutjwYhls3aUImnTfhFa30/vpZ3L670m0IjxhBOajp8/DNkIwcwuVhp/fYyhHh0O9EzVje4ZmVQP8r/Gp8pF3nKtW9Sq6IiCc8p2kOYbv2yW3dX3dU+NMDIpfs9TMYamkqbwnaUf9m8qXBW/FCA3Hwaw8pPT83bQKnsIJ1LBzMgCUi9kyNg98GV5JqPXPG5WaWuhDh0fnMOc5Ry7Y3ys+E2V70HFRAJClKw9XktEUOKIK8bx8ITqMxTVg+v3K7C+lPrHqzQlP0sExaSZK596vvoZ1WGVWCSg6Z6JjWOV1RFFQYHfOWosNLc7j3xa/IP61CjxDRZOPF8K98iciS9LMldOTeMmqJzRmhjg/k8do3yDqt3yYnMID7B5+sbRBcRsDnR2BMptey580hczPa00tWwdYOpd/8DDX7j9wD3qmlPxbvUZRMDH03XpXxAnX8IfgZfeKQBIwnCBK8oVte5dObhF2gXX33S8o+l46ku9qfLokzQTyN0jt6hJw0qI0bafdopY3kEo9/MevGuLxHTWMGFXDBtNWscxrfNO4CbFILt2iO3kBThBA4cJO8x9T9DA9gkbUfKhFrJ2TM61DkYSDr1vVgIcrTSDphBiYhj4GYXMGZ9N5u5yX4L7FaFIEuyKy7odYK2vy5FyJnDlQvkq+GYdhgfPhWL6Fc7BeF0DN4Kn+flyDlERrYhu+EYDmzbpCTD/7dgp7ld2Vj/vKINAlpOlKuZ0p0gFoNAjFCN9ZmyQ1Yc6DSrdLf40fMfFrHv2MtgeFmeuvzN82Q4EZUA+/4+AjwsdLJEY2bX1bV3sg+o0lWNVFdECCdcW6Ib7tq/lzkrJrUgZXN2bOGRSjfvxdcBj8e1zRhj/nTtjM=</t>
+    <t>U2FsdGVkX18GwQhBbrS0mtak6vzynMD8Hu2/fDkarVoyt0+Tr/IOTIj8oLOOZn74Ldb7kQzWhEFw40b1VWY8B8rF7tZmyiwksHf/ul/SVbyrDZF4enLa3LQ1bML/Zp1W56aKIwp3R2m08zE8OO5WNdofBVm/ELy+HCi+ZfuE11iI/J0PxAa5gmjSdI2gpwS3g8qs+/bliQGE32dOMkEHRgYZqhZzZe3OO/lH2ilKvvqj9mGLpTMpvwCKVfH3hsUdU8JeBj3+8HNF9SilKTrxK1icrcXAX5/UPznNmGHEo1WHhBb0VsUt2OTKKxYf656pNT+eRfTEQKA/0JbGac/hH36a8tguW0nzPCBNKp6+gGZNN2NQtG/0NTXr2vJHC3UPBpunN5fUGMPM8EDFH452lVpXhkCBiU7xdC+7cEWZ7B5usqnfSFVtHJVoNReC2n0J8N9ljuEIB+d5z6tSmBS33RWOHLZEf+h125R4KYWuMQm5jCh4YNupKZX83K60mMCgwsIqz9BAzuRC2iJ+wBaF7NrEJO0p8YDnO3vyI6sWinplGVKgVkQKdo+rcoJspJsVNSCE6BasuYU42KWVMkUzkUKeEs/FWmC+/u9hZoqmfNgxZ4VWfWkezhdb3sqo1RZ7jyrFzTFlW9SPuPU9J4ueESYfvah2a0dbvuw+5jLs2PdayFkrosdMqUPs6KTDnax+J76XTtqTanbJ+d5FKaX2ZAVeEgxUP/7F6KoYFbbEebgkOGplx8fXkmXSMuQYoSEYiqKVE7BVI8qyQA7QB/TY8Q2wx+7Ns/2Ngi7pSyKQQDavZ6Ra4OnedpETxxR6W8Kb8dS9/wuTi6ymx8t8tVkogZFqOttoVlJwb3aNRTr8frg47WHTzmMH2fiSXwP6N9KUiyuiOJ0LRxEQVXhCue84cgXmWp/cuUfFmuqBV2amc3nyNoMdv4G2JmSzJiBQpE3ASnxsVnAJz+S3rfY/OjV4k1Bg+i33ZDfSsaWXejjip/6vVECRyrXS6neVfWTMKpgWGcjgKw+5ba6vKNSbtk8O/k5EYgLS9F+yC2gyZlx9jUSwNX2024kmPMOaaiaee6cVGujJuAhclqluGbwxqL2AFbo78O91kE+2ip8JofbTQsg2OWE4M7iwpty0acjalA1/xJpQgipQQfsQIi2ou4paI4H/JzvkV3GnRJECSu7zUPYVy5kYH16Mjdc/fXZ5nj/gie92116zm1BGcceTGr7id2h/7cXsf25woHKqt6ketg3UjxPBpzfHMt4Jzr5mZ7IaQaV3t3efddZv14md9FH2fyZeeOCw+ehxbepQNzBO9fo=</t>
+  </si>
+  <si>
+    <t>2:55-3:0</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX18CeviQ24hIEERMC5lllAkCyTq8qB+K1J8ELLtppxyKsUFxOE+nntq9/WW38YXJQgmprt6+xWNAmDhQSQC6lExckmwooXEjTNnJ3+9TvopXVeVD4S0/efSymJkoILmDy9RhiqXoSqODsFf1mw71a6OLivpxueg/q+qqYdvq9yTI5iNQnz8y5ZvghwX8Tnm229QpdNMizeUnveiSMqY7iXdMtRUQvaeCOZiQmAcsaONQgiZHeeIJfpeKgFkOVDkheWibIj5j8MfxlLI/fFNKAEvF/SJnCDktvpPdSOUz0PHB2+E7GdBSsjK5</t>
+  </si>
+  <si>
+    <t>3:0-3:5</t>
+  </si>
+  <si>
+    <t>10:55-11:0</t>
+  </si>
+  <si>
+    <t>11:0-11:5</t>
+  </si>
+  <si>
+    <t>18:55-19:0</t>
+  </si>
+  <si>
+    <t>19:0-19:5</t>
   </si>
 </sst>
 </file>
@@ -369,11 +387,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,10 +414,50 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/json_max.xlsx
+++ b/json_max.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1C0C90-8B29-4F76-85C3-B472397BA96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED7DD83-75C2-49C9-8DF9-69FC7417FD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>№</t>
   </si>
   <si>
-    <t>U2FsdGVkX18GwQhBbrS0mtak6vzynMD8Hu2/fDkarVoyt0+Tr/IOTIj8oLOOZn74Ldb7kQzWhEFw40b1VWY8B8rF7tZmyiwksHf/ul/SVbyrDZF4enLa3LQ1bML/Zp1W56aKIwp3R2m08zE8OO5WNdofBVm/ELy+HCi+ZfuE11iI/J0PxAa5gmjSdI2gpwS3g8qs+/bliQGE32dOMkEHRgYZqhZzZe3OO/lH2ilKvvqj9mGLpTMpvwCKVfH3hsUdU8JeBj3+8HNF9SilKTrxK1icrcXAX5/UPznNmGHEo1WHhBb0VsUt2OTKKxYf656pNT+eRfTEQKA/0JbGac/hH36a8tguW0nzPCBNKp6+gGZNN2NQtG/0NTXr2vJHC3UPBpunN5fUGMPM8EDFH452lVpXhkCBiU7xdC+7cEWZ7B5usqnfSFVtHJVoNReC2n0J8N9ljuEIB+d5z6tSmBS33RWOHLZEf+h125R4KYWuMQm5jCh4YNupKZX83K60mMCgwsIqz9BAzuRC2iJ+wBaF7NrEJO0p8YDnO3vyI6sWinplGVKgVkQKdo+rcoJspJsVNSCE6BasuYU42KWVMkUzkUKeEs/FWmC+/u9hZoqmfNgxZ4VWfWkezhdb3sqo1RZ7jyrFzTFlW9SPuPU9J4ueESYfvah2a0dbvuw+5jLs2PdayFkrosdMqUPs6KTDnax+J76XTtqTanbJ+d5FKaX2ZAVeEgxUP/7F6KoYFbbEebgkOGplx8fXkmXSMuQYoSEYiqKVE7BVI8qyQA7QB/TY8Q2wx+7Ns/2Ngi7pSyKQQDavZ6Ra4OnedpETxxR6W8Kb8dS9/wuTi6ymx8t8tVkogZFqOttoVlJwb3aNRTr8frg47WHTzmMH2fiSXwP6N9KUiyuiOJ0LRxEQVXhCue84cgXmWp/cuUfFmuqBV2amc3nyNoMdv4G2JmSzJiBQpE3ASnxsVnAJz+S3rfY/OjV4k1Bg+i33ZDfSsaWXejjip/6vVECRyrXS6neVfWTMKpgWGcjgKw+5ba6vKNSbtk8O/k5EYgLS9F+yC2gyZlx9jUSwNX2024kmPMOaaiaee6cVGujJuAhclqluGbwxqL2AFbo78O91kE+2ip8JofbTQsg2OWE4M7iwpty0acjalA1/xJpQgipQQfsQIi2ou4paI4H/JzvkV3GnRJECSu7zUPYVy5kYH16Mjdc/fXZ5nj/gie92116zm1BGcceTGr7id2h/7cXsf25woHKqt6ketg3UjxPBpzfHMt4Jzr5mZ7IaQaV3t3efddZv14md9FH2fyZeeOCw+ehxbepQNzBO9fo=</t>
-  </si>
-  <si>
     <t>2:55-3:0</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>19:0-19:5</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1/uaCilOc9bb4XC5m5Y6DQN8bfZxHVA8sJ10SIoCpbpYjkD/3CmdJ46xhtaSBZv7CuQwilp2QwRMP7CyrHzY1U616pbYkm82+aoAa6sdI69qDyrtd7zCl7gZIt+NAniqZVzpa31YfpTZ7t99v+ziPwzc/Z00is155mUQJId4enTVgK76dck9LmoyK+bWxLYLpSovqZgZ4f7idlk7UkJBXKaVlR8wAdtOdM7YToEpstJc5mOyXF87tQyq7XIcVLaNT9LlDJoTgJL34lD8bnqdzQMZ/8xS4wExQK2PJ1Cw2WTBfJXKSKio2CFOfGM7RsWt96LA+XGRVZfE0+SgvfnrbXhCpTiWvIDe94HDOXNrU6nHfGYnOssmAExU7MJZlnumJU0oG/aiXInemQSjwtmGqAiLqkOR4FcyfctNzy6VkEBN+Fj60CLvMHg9EZlomjwupZcUrou+EjQ/Gg+fbvgLw6crqYs55hE4sftk1z4CwVp/HgFiFcnDlUgKUrhvyB6NQb6JS8u6n/ui2me0q0SIUH5Tp7NrfzQq/XFxkfOF756nBEp9lKmrBb/aD6MdSK27O+zlAbaq6ejU5Q33W5IJ/uEIQCexz/m1d5F814OhXL6osdG/BBV5HndVi5VEs3C8ON4/2ei4lq+gi7Wkqfza4Wi1kp0/YkGfGyQqkqwpvwIpo5jB5tjrIpBak5M3ONmp4zz92jR9H5heHCv28RCBa0ggy9oJgV2B0F8VtS+hvsGGNvjnY8SBOHwTjQqLZIAVs4l0SNd6ToEIVldiTYU9I015k277nQEVjgq6V+M6WlARzvNqesVRGrEl/QxChjIjaWRuJGWeQ7j89KPIso2K0ujiYwnDLof4j4VvHmnMB3gOqZbwJLhvIY6Yu7xCx9F3afBQYzXIpcvJ/M+3mX3KvVj3RXoVILgiblVKOaRjNaKveRLHFcxwwiA29AdZsngI0wmLqwb4IsDzHK0p3nyFaStFDoZTaNc2d4UtXOpTObha+WaeqQgLgogV/bQVp5UTH8hxfNoUloPjHFjkWhigGSF4gKIfiTpnSBjaOu0dGt0rZYdZvxJblmvTwi731SColrLiFCNOmE4x7gt8kqSMl5C3Ay2Hb1Y3WU6ACA05lzwX5MOqvG9kwmH2GxN516MjBjn5yc7tPWyKHg1zl5eE/fjv5WxttZthTHfvaAtpeEGQv1xMPs6DQPYI5GROMAxAfnoTnJGNgcEXFWSy7UhIdKv+Pkkgf2yvZuk3xoH4NDhk0iuyJtIdLPuYv5w/jblH0AUILavcqnrLa0e7UfxFFLjUamJg9pUbLo=</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,50 +414,50 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/json_max.xlsx
+++ b/json_max.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED7DD83-75C2-49C9-8DF9-69FC7417FD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028B867A-9D01-4509-9256-451DBD203791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Посыл / Заповедь</t>
   </si>
@@ -36,28 +36,88 @@
     <t>№</t>
   </si>
   <si>
-    <t>2:55-3:0</t>
-  </si>
-  <si>
     <t>U2FsdGVkX18CeviQ24hIEERMC5lllAkCyTq8qB+K1J8ELLtppxyKsUFxOE+nntq9/WW38YXJQgmprt6+xWNAmDhQSQC6lExckmwooXEjTNnJ3+9TvopXVeVD4S0/efSymJkoILmDy9RhiqXoSqODsFf1mw71a6OLivpxueg/q+qqYdvq9yTI5iNQnz8y5ZvghwX8Tnm229QpdNMizeUnveiSMqY7iXdMtRUQvaeCOZiQmAcsaONQgiZHeeIJfpeKgFkOVDkheWibIj5j8MfxlLI/fFNKAEvF/SJnCDktvpPdSOUz0PHB2+E7GdBSsjK5</t>
   </si>
   <si>
-    <t>3:0-3:5</t>
-  </si>
-  <si>
     <t>10:55-11:0</t>
   </si>
   <si>
     <t>11:0-11:5</t>
   </si>
   <si>
-    <t>18:55-19:0</t>
-  </si>
-  <si>
-    <t>19:0-19:5</t>
-  </si>
-  <si>
     <t>U2FsdGVkX1/uaCilOc9bb4XC5m5Y6DQN8bfZxHVA8sJ10SIoCpbpYjkD/3CmdJ46xhtaSBZv7CuQwilp2QwRMP7CyrHzY1U616pbYkm82+aoAa6sdI69qDyrtd7zCl7gZIt+NAniqZVzpa31YfpTZ7t99v+ziPwzc/Z00is155mUQJId4enTVgK76dck9LmoyK+bWxLYLpSovqZgZ4f7idlk7UkJBXKaVlR8wAdtOdM7YToEpstJc5mOyXF87tQyq7XIcVLaNT9LlDJoTgJL34lD8bnqdzQMZ/8xS4wExQK2PJ1Cw2WTBfJXKSKio2CFOfGM7RsWt96LA+XGRVZfE0+SgvfnrbXhCpTiWvIDe94HDOXNrU6nHfGYnOssmAExU7MJZlnumJU0oG/aiXInemQSjwtmGqAiLqkOR4FcyfctNzy6VkEBN+Fj60CLvMHg9EZlomjwupZcUrou+EjQ/Gg+fbvgLw6crqYs55hE4sftk1z4CwVp/HgFiFcnDlUgKUrhvyB6NQb6JS8u6n/ui2me0q0SIUH5Tp7NrfzQq/XFxkfOF756nBEp9lKmrBb/aD6MdSK27O+zlAbaq6ejU5Q33W5IJ/uEIQCexz/m1d5F814OhXL6osdG/BBV5HndVi5VEs3C8ON4/2ei4lq+gi7Wkqfza4Wi1kp0/YkGfGyQqkqwpvwIpo5jB5tjrIpBak5M3ONmp4zz92jR9H5heHCv28RCBa0ggy9oJgV2B0F8VtS+hvsGGNvjnY8SBOHwTjQqLZIAVs4l0SNd6ToEIVldiTYU9I015k277nQEVjgq6V+M6WlARzvNqesVRGrEl/QxChjIjaWRuJGWeQ7j89KPIso2K0ujiYwnDLof4j4VvHmnMB3gOqZbwJLhvIY6Yu7xCx9F3afBQYzXIpcvJ/M+3mX3KvVj3RXoVILgiblVKOaRjNaKveRLHFcxwwiA29AdZsngI0wmLqwb4IsDzHK0p3nyFaStFDoZTaNc2d4UtXOpTObha+WaeqQgLgogV/bQVp5UTH8hxfNoUloPjHFjkWhigGSF4gKIfiTpnSBjaOu0dGt0rZYdZvxJblmvTwi731SColrLiFCNOmE4x7gt8kqSMl5C3Ay2Hb1Y3WU6ACA05lzwX5MOqvG9kwmH2GxN516MjBjn5yc7tPWyKHg1zl5eE/fjv5WxttZthTHfvaAtpeEGQv1xMPs6DQPYI5GROMAxAfnoTnJGNgcEXFWSy7UhIdKv+Pkkgf2yvZuk3xoH4NDhk0iuyJtIdLPuYv5w/jblH0AUILavcqnrLa0e7UfxFFLjUamJg9pUbLo=</t>
+  </si>
+  <si>
+    <t>11:5-11:10</t>
+  </si>
+  <si>
+    <t>11:10-11:15</t>
+  </si>
+  <si>
+    <t>11:15-11:20</t>
+  </si>
+  <si>
+    <t>11:20-11:25</t>
+  </si>
+  <si>
+    <t>11:25-11:30</t>
+  </si>
+  <si>
+    <t>11:30-11:35</t>
+  </si>
+  <si>
+    <t>11:35-11:40</t>
+  </si>
+  <si>
+    <t>11:40-11:45</t>
+  </si>
+  <si>
+    <t>11:45-11:50</t>
+  </si>
+  <si>
+    <t>11:50-11:55</t>
+  </si>
+  <si>
+    <t>12:0-12:5</t>
+  </si>
+  <si>
+    <t>11:55-12:0</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1+EqRz5mg36pN1B7kT9TR74WNMW/ISHW6cmSoQSnp5jVxizWU7v40DIEcFLRpkmAsuMakXso2huErv5jipCq63FnUFQEFKQXScxoglLuNsCEAroagHty+NcVBAK06ajVBZD9FZYUo1INlDEzJ5CdHvJHxlfTVzdd+cGGAVluDv+kdxOtAKpnGb5oGAYnJfu2OtdcKykwKqfhkELCcAxJNUuDgoOR9B4OGEM62hFHbG6Yw62/AspDOUvsPz7gMc2JOztQnFmoWfvKWs5CIW2fF9ZhDt/eTrtboRnByBZE15uaFyGLnxvpu+oUaipP/9ecNG0NV7nFt/BDLEClRzUmKMLCaUgv2qXmIuLXh4KyJvl/DSUSx2fIAvEdXwI619kb8AMwAUxMY6nTq6Xxl4cDSOQxrGOzUe/i7Q=</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX18D85up224eLUPZ7GpNJAtvdfgU27dFmQInnqsUmJZEyVW6bReRwHft383DfZIRXHbYx50rmTipM8dTB2HjIk7aD/UkTIXXZ9RrXmBr4oSSN3Q2l2wkGmmrUuPC9tWFLDSUMhWesI2dtAxd/G82Qo1Pxunprz0gRo3pivMSOYpw5RNIDP2K8Z9itAsEEB3icV+HzUhYDeUM8Ks91PnJE9NOrZ2t74NLzStAS/mh38dzgkX30JK3hZArbKISggzxsW5stnK/0h+tqIEokEWkDZVMCAaXeoL38fh26+ToJH8AoDngD4LODjTTs0T6C6VRPa/BbZhc55yZpFUpK5ycV7P2Ci57H2Ac3dU=</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX19FxGzlsvUgo+buXRdS1RLU7kJMDzGAdMUQkckbrgbWv7jz+QT/6N9ZdX16Z+EenDeUyTV2nhC3w3vZTq0kRWc2vK/u3kAH70oABJzDDxciUiptkf/q4t8rRWthXtzJPMsFx4NnaAtQlQPRmwtHlIcT9uZm3x1QhtkZV7+VWOS1nvKUX4VSXAZ0JVJNZ59f1+K83wFQQLRSYurvXEba0gJ7LAiBSRhs0pi/nslCJO9gSatF4jCGpDawRVGCqw3bjCwz0rDZKuvr63M8k/KubEo1BXYd1nWbe+1mhOxEod948hhOLz8XveQnf3L5QhOcArrg0RMqI1PxfShEz7+ka0lkv7MFm0Qj63M8s12l9v5/b9r1j9Z3V52ZJ7BaOCAA4kY3yju27j/ie1M2JP5DVMMy8grcUza7M/DIGb1zoSZ8zjosBZArClSy</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX18dvSQioA8bbZXBmKNPWCxwHchn7izQU9COIhFMq1KX36lQNjZiYrQD//S8EmsoDReRaH5yElamMDA2wrD0xDVMM9G5Z9redIxAtPyF0Ag0NV2Z3sKCmzeh58n7mLUu6y10ygW+qt+uSwkbjaOG9780adK1azYqeGdIiLDyOQqiuo24zZwAa6iisZzP0Lykag76rwMfjhU3pav3rwswzF+zgm0uA83ezdnlD0H7eNxENQWFu+dWQSL+ERdiVkAMQ8tVCF4cxvCf6Pe35oFj77EIB30Y8y3wFVYy+GvAJOjhaIuo/FdNmwtMxm5u2ypO09dhXcHq4RQa1yKzVKqqX1sglTDW8V7qON2PN1pWynvzeBlMHWfNuDPNPT1ejb+nnIzY4yNqEOWEVRywe0vS1ICO4ft/3yEJF+s=</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX19eQZGX7pj68kIum1I0o+zBh4WPYNf8xq3siizN52bKew5l+nywF74gq5cAzJ9tkn51FYLRRTGi66vuDCqq1eOjCI7bum6vRtm8s4UcObcZXRpujZx2sDq/KIEiSRguShI3VOEhk+WmZqLqwG7tOqBNJZXz6lW+/oA7NRpChVvxhWFNfTgwOwZmPPjmhgZqTlVz5GdAHI0mYifDY6lyvD1aND2PKn5ZSmxWhPwzMXmVOEojm8tnNWreCmsh1aqrKA7+FCppwudh0gDp1iNrNhDG20sYZz6bymF7PoqDhOQ8vnl3kCBUxGfhbg5gQANqNprC09QxsEx/wdi+M7D5kzEuvLQX8CxIkzAqbkPVG3W8v/uR0QFFtJfz3Z7N/MqV3XCt7dInXL1k9ilnxmifWyUz8k0RHCCfoOnpNyQdcYjWKutaHCWi2gyZyd/NFmZWOS1nl40omEvjMg==</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX19X3MgjX8KTTcrESJoNSwdMSlfC20xYZa42RtbdCHOOY/xohgjv2dtNrUbhhBvHQqEazTNLBhJNlNQSGCVC1zcIe3TKFuDcc1o+OIirIDfGvYpS2rRl1SWPIP6SQSHhc+cy4+VlTbmrIE6jOK84QRtI8f0bEzx95hLWlkQgARy17z3SFtaUToyAGkBJtC85swugMR/lvLNwgZFEk0TCuCUsMs3rjpPdQUhE9Wj9K9sOFeVXB3j+0lbO71XA+P5P6w6bUfa3Be/ov/Prp4ngaazvuG/gO4caCV5/IqJzVLxzpotSgX7wFrZNBEmLm8kdWm1DfKh4muju8JQFhMeu7WE9l4aJ8nSXsUY=</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX19vF2FV0aQYAgE7L+9745pjetW0kMg3EzbL+IVHC27R1HpZ2zFDxVUMAKOuFGVJ8OXT0+XXOjrkMDv5u/Y6f/8wHxctZz1lW6H0sEgH/VPjtQ6meyZmuinIS+eq5TVZkTk9QUjQ23dxllHNba0kgTSStYY+4wnKeFafT2M17BXi45d6HU0ig4YmclM7dHDnxVHK/Z+bym7qCNQ2Pzz4mnNjMA0aJEhV3cOR0sbsvjGZ8XDiWyyqQvKROqOGp5tPk0n5IrBH4yWiH8/Qw8hcbIpvwoa5yO42kX0ILZ0YkUwIWvWoI2u8Cma6qE2I3eXaE6BlF81NxHQ6E/7woHHtVPQkFBSm9Dj5K2A=</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1+v2CH9e8k+TdlapGKj+O/wO2ylWEfgkOmZHO2fFAxLjna5VA50nTtNUifZMfuMihNm+KW3Vp/DPYSM3OvJljKIcWILvxEnt4Uq9FYzHSk76l2SFXn9GWG80snjjvXZtQwX7Re79C8/X3JHFyUA0p1NsGXhSVwSPANVaoWqPGIO9VlrRUWyP36N5dkRXy17hQ8N0CeL+Lp3qPhwhazfOaOu7DewaLaS9LYzTnnJijJeFq06VMtnOcepIWm14H1wPOT5fw5fSP87w+CZrwCs6fDB7w1sgO3nlgWCtrswltYg+rdH3LWIu5aCfIV9VLqPTcc45MIOQTcLf3fXeK6ZZmMsnyCxFWY5U7I/9N8+B0qyh8nvQzHMjpm7Vq8kAIuEOVIgUYWtoYmxR6FAIKD8iT0zrF8itzvOF6Vte8AezZOradPp1nABFHOCRNl2iloWRXVm5GLWLpNyfUwfYZTZ3NiOzMIYFJjUKeg=</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX19UVYawAGmNToFy56xASB15xGyt4+Ehl44thvWSNfdqyFTGhHsz0aQhR3Z0wjCumkE3FGV1dwwe8hbqHxLnbJ2igAkhZCD9Pu4YQJ+sai/c3mHS2RWqr5++3bB//2RD4uMOvNv9ill6Cd40gEBzwBz4E/eKlKt8xe3aXUZsltM7D/+qoTqp7xMbvr/NPl+bwim4LUJu4umutGs0Xt255rDhGckL2qmJo4qM/S7bNDfrH/W8E6UcZ0FyLz+vuJG0YwedHloP/+lmLQUWwjGhQK5xl8VQ33hzgUzBPdb99wnlfQKLYJ4jYNKj7XPtA2qcR7sn58PT0vsjs8OjzDbsgvkZDStBFcK9n/NzYHRgLIrcudodqIT1IYRTRhJ5mADZppYERWe7OBRWcQ==</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX18VQxeyU6dxfSKRf/WHcLalX6DnH62kdRPfx0KBjjSzopcbJ7fc1f/msjb28WJX6nj+AiAG9v0cYJ7aKd/zHjrfB3SRnKEpaXWs+Hn/kix4N14UTeAkDo5FEUsyCu6XqNDBHlU+gDLWTzYX3bcY3DaZG9UVXoba4Q3jEJWJDedL42Eim4HFOnE5gUIbGwyz7+GCAE4njctTuiY3FpL0TA4WcI/fYTPowpLD7ZLtCqPXgs4Pvo34umBnEaTQucajC5jvvfJIa84G0fbVD1MtjvknJm2T+m5OrtaTg7EPOHoClgRNCefYSp+LpLWZ3d6weOr3NJ6+igv0+C1Zla52kjlDLwlfyCE/Bo+elQP6xJLjZRlZs8/cgfqpECd3TM5B+IXUYJEnD1bD5/Q4pvXiSMI+qbpakLMaPkYdH7w/SlqQueSWpOPMh7D3mKMoDfmo8q2GjLOYCjVSPg==</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1+8KKxqt5fT1eBZf8nUskNJ7mFCE1QIKREeppPwhUh1Sa0aWqiglHuc</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1/uSd6oYz/AMEPgHPLjc2amon7N0LXziHgeKMagBUQlnbder3K8r2geGkVIi6HvkoK7S2QaPfRdZqXKEQGAI7ohJX1P955fY9fgkD5keunwkq86pzZIuMJJ/TjEydLCnSxP2E6Sn+G+7gHG/7Clo+Hn1VnGCnAYh8Etw/pcxfzyE5c5YJpdQtpIWHxowWDP1+y7WGANO+H1qQ==</t>
   </si>
 </sst>
 </file>
@@ -387,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,15 +474,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -430,34 +490,98 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/json_max.xlsx
+++ b/json_max.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028B867A-9D01-4509-9256-451DBD203791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF62D149-1240-494B-90FA-EEFD0FD79264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,10 +114,10 @@
     <t>U2FsdGVkX18VQxeyU6dxfSKRf/WHcLalX6DnH62kdRPfx0KBjjSzopcbJ7fc1f/msjb28WJX6nj+AiAG9v0cYJ7aKd/zHjrfB3SRnKEpaXWs+Hn/kix4N14UTeAkDo5FEUsyCu6XqNDBHlU+gDLWTzYX3bcY3DaZG9UVXoba4Q3jEJWJDedL42Eim4HFOnE5gUIbGwyz7+GCAE4njctTuiY3FpL0TA4WcI/fYTPowpLD7ZLtCqPXgs4Pvo34umBnEaTQucajC5jvvfJIa84G0fbVD1MtjvknJm2T+m5OrtaTg7EPOHoClgRNCefYSp+LpLWZ3d6weOr3NJ6+igv0+C1Zla52kjlDLwlfyCE/Bo+elQP6xJLjZRlZs8/cgfqpECd3TM5B+IXUYJEnD1bD5/Q4pvXiSMI+qbpakLMaPkYdH7w/SlqQueSWpOPMh7D3mKMoDfmo8q2GjLOYCjVSPg==</t>
   </si>
   <si>
-    <t>U2FsdGVkX1+8KKxqt5fT1eBZf8nUskNJ7mFCE1QIKREeppPwhUh1Sa0aWqiglHuc</t>
-  </si>
-  <si>
     <t>U2FsdGVkX1/uSd6oYz/AMEPgHPLjc2amon7N0LXziHgeKMagBUQlnbder3K8r2geGkVIi6HvkoK7S2QaPfRdZqXKEQGAI7ohJX1P955fY9fgkD5keunwkq86pzZIuMJJ/TjEydLCnSxP2E6Sn+G+7gHG/7Clo+Hn1VnGCnAYh8Etw/pcxfzyE5c5YJpdQtpIWHxowWDP1+y7WGANO+H1qQ==</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX19pVFiEFGr+okGR3DwaGQRgeHdGXpjw4VUK9xa0KlweeGwh3FMR3QoANLgsNWRuwDHrRafszy90digd2jmAQyBN3iwLMoIkK/lraSwhNIMD/Fox+vsCEHHcDhwRD+XEFreFcoVxCsRav3DDT3GwCkwpu3HMku2sWJ+VZF4/075wIvi+6DN8j46gTe0uXl59ZBOwleRKiDjon5mMq1KTl3vMn1rKvKzyLflmyrXLM4ZCvcvI3vxdQ6bd6D/+3mbvJt6KYZubNl//Qi2YZ/nBsntb7U+PZKlpwDO8lpNO3O4d+UTvOQAwoao3YRrKY7AvJ+SyNTTYUbTiI2OGIoqpQMNirm36S/effJddVLJn9KZInBPXlAYJoP0Uv/zhNklnQdYl88DMxfMRHPbUA4fobpuSwz5XYPOlL6MxhpA9+CQppZ2CYcuPi0K2PZLyerGnyI48wbr+XR3B/h7bi3gXGS3O1MQZGX5Vw6kiZf3iPtnzmBO8RHoeKEaq8+MvM/V/VjV0sOrZLWOJ02KFi6Nx3Kl1rVruaNuCPLOBdolSjKvCzILvR1kx5W8FvrEueogX9TcTNYMQ3Xm43lG1s1/1wf3aoOI/tIA+FQSrPqJ4N2wk5ROCoPplc/KcDVaUMKE1ELkMWW2B9b1Pi7xa/saPjYStUQoqGM31A628kaISNc0mEtg7LPxZ144nsSjfYMpuWWIXyEGe4xbg30JBo/npQZOvmDW2eDnf0xACUBr8x7YJtso8sgbOm+6RQtYTNUXO51sWYHL47vmXMEB1KN9AvG7FsDrjyAIDyjjhX7nVjKcr7uJDTjLA8Ka78zX3DZAUPT3Lt3KKO/ZnfGziSglchoIMQo9rm1IB7u4v8bnpK7wTxyTufjHj/WEkLLChtw82rLDqSFvl5PmiY1pULRwNU3BwtEpkLLuvBjpOH7oDKtY8i+SDjJQWKK2bMJd581Ym6+TYEVVOu32mokZqXuzBAvxVgs7pT3Zr/NfJbfJHrMzAfXZXAbbo6jbLROlSBZR+M51fY+qySslWKL+aIDurEiH5wYHkWzKs+hdiixcNhToD6atdnMwsjbVE</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>17</v>

--- a/json_max.xlsx
+++ b/json_max.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF62D149-1240-494B-90FA-EEFD0FD79264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F06CEE-8D27-477E-A200-6D7E6EFABB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30540" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,12 @@
     <t>№</t>
   </si>
   <si>
-    <t>U2FsdGVkX18CeviQ24hIEERMC5lllAkCyTq8qB+K1J8ELLtppxyKsUFxOE+nntq9/WW38YXJQgmprt6+xWNAmDhQSQC6lExckmwooXEjTNnJ3+9TvopXVeVD4S0/efSymJkoILmDy9RhiqXoSqODsFf1mw71a6OLivpxueg/q+qqYdvq9yTI5iNQnz8y5ZvghwX8Tnm229QpdNMizeUnveiSMqY7iXdMtRUQvaeCOZiQmAcsaONQgiZHeeIJfpeKgFkOVDkheWibIj5j8MfxlLI/fFNKAEvF/SJnCDktvpPdSOUz0PHB2+E7GdBSsjK5</t>
-  </si>
-  <si>
     <t>10:55-11:0</t>
   </si>
   <si>
     <t>11:0-11:5</t>
   </si>
   <si>
-    <t>U2FsdGVkX1/uaCilOc9bb4XC5m5Y6DQN8bfZxHVA8sJ10SIoCpbpYjkD/3CmdJ46xhtaSBZv7CuQwilp2QwRMP7CyrHzY1U616pbYkm82+aoAa6sdI69qDyrtd7zCl7gZIt+NAniqZVzpa31YfpTZ7t99v+ziPwzc/Z00is155mUQJId4enTVgK76dck9LmoyK+bWxLYLpSovqZgZ4f7idlk7UkJBXKaVlR8wAdtOdM7YToEpstJc5mOyXF87tQyq7XIcVLaNT9LlDJoTgJL34lD8bnqdzQMZ/8xS4wExQK2PJ1Cw2WTBfJXKSKio2CFOfGM7RsWt96LA+XGRVZfE0+SgvfnrbXhCpTiWvIDe94HDOXNrU6nHfGYnOssmAExU7MJZlnumJU0oG/aiXInemQSjwtmGqAiLqkOR4FcyfctNzy6VkEBN+Fj60CLvMHg9EZlomjwupZcUrou+EjQ/Gg+fbvgLw6crqYs55hE4sftk1z4CwVp/HgFiFcnDlUgKUrhvyB6NQb6JS8u6n/ui2me0q0SIUH5Tp7NrfzQq/XFxkfOF756nBEp9lKmrBb/aD6MdSK27O+zlAbaq6ejU5Q33W5IJ/uEIQCexz/m1d5F814OhXL6osdG/BBV5HndVi5VEs3C8ON4/2ei4lq+gi7Wkqfza4Wi1kp0/YkGfGyQqkqwpvwIpo5jB5tjrIpBak5M3ONmp4zz92jR9H5heHCv28RCBa0ggy9oJgV2B0F8VtS+hvsGGNvjnY8SBOHwTjQqLZIAVs4l0SNd6ToEIVldiTYU9I015k277nQEVjgq6V+M6WlARzvNqesVRGrEl/QxChjIjaWRuJGWeQ7j89KPIso2K0ujiYwnDLof4j4VvHmnMB3gOqZbwJLhvIY6Yu7xCx9F3afBQYzXIpcvJ/M+3mX3KvVj3RXoVILgiblVKOaRjNaKveRLHFcxwwiA29AdZsngI0wmLqwb4IsDzHK0p3nyFaStFDoZTaNc2d4UtXOpTObha+WaeqQgLgogV/bQVp5UTH8hxfNoUloPjHFjkWhigGSF4gKIfiTpnSBjaOu0dGt0rZYdZvxJblmvTwi731SColrLiFCNOmE4x7gt8kqSMl5C3Ay2Hb1Y3WU6ACA05lzwX5MOqvG9kwmH2GxN516MjBjn5yc7tPWyKHg1zl5eE/fjv5WxttZthTHfvaAtpeEGQv1xMPs6DQPYI5GROMAxAfnoTnJGNgcEXFWSy7UhIdKv+Pkkgf2yvZuk3xoH4NDhk0iuyJtIdLPuYv5w/jblH0AUILavcqnrLa0e7UfxFFLjUamJg9pUbLo=</t>
-  </si>
-  <si>
     <t>11:5-11:10</t>
   </si>
   <si>
@@ -84,40 +78,46 @@
     <t>11:55-12:0</t>
   </si>
   <si>
-    <t>U2FsdGVkX1+EqRz5mg36pN1B7kT9TR74WNMW/ISHW6cmSoQSnp5jVxizWU7v40DIEcFLRpkmAsuMakXso2huErv5jipCq63FnUFQEFKQXScxoglLuNsCEAroagHty+NcVBAK06ajVBZD9FZYUo1INlDEzJ5CdHvJHxlfTVzdd+cGGAVluDv+kdxOtAKpnGb5oGAYnJfu2OtdcKykwKqfhkELCcAxJNUuDgoOR9B4OGEM62hFHbG6Yw62/AspDOUvsPz7gMc2JOztQnFmoWfvKWs5CIW2fF9ZhDt/eTrtboRnByBZE15uaFyGLnxvpu+oUaipP/9ecNG0NV7nFt/BDLEClRzUmKMLCaUgv2qXmIuLXh4KyJvl/DSUSx2fIAvEdXwI619kb8AMwAUxMY6nTq6Xxl4cDSOQxrGOzUe/i7Q=</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX18D85up224eLUPZ7GpNJAtvdfgU27dFmQInnqsUmJZEyVW6bReRwHft383DfZIRXHbYx50rmTipM8dTB2HjIk7aD/UkTIXXZ9RrXmBr4oSSN3Q2l2wkGmmrUuPC9tWFLDSUMhWesI2dtAxd/G82Qo1Pxunprz0gRo3pivMSOYpw5RNIDP2K8Z9itAsEEB3icV+HzUhYDeUM8Ks91PnJE9NOrZ2t74NLzStAS/mh38dzgkX30JK3hZArbKISggzxsW5stnK/0h+tqIEokEWkDZVMCAaXeoL38fh26+ToJH8AoDngD4LODjTTs0T6C6VRPa/BbZhc55yZpFUpK5ycV7P2Ci57H2Ac3dU=</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX19FxGzlsvUgo+buXRdS1RLU7kJMDzGAdMUQkckbrgbWv7jz+QT/6N9ZdX16Z+EenDeUyTV2nhC3w3vZTq0kRWc2vK/u3kAH70oABJzDDxciUiptkf/q4t8rRWthXtzJPMsFx4NnaAtQlQPRmwtHlIcT9uZm3x1QhtkZV7+VWOS1nvKUX4VSXAZ0JVJNZ59f1+K83wFQQLRSYurvXEba0gJ7LAiBSRhs0pi/nslCJO9gSatF4jCGpDawRVGCqw3bjCwz0rDZKuvr63M8k/KubEo1BXYd1nWbe+1mhOxEod948hhOLz8XveQnf3L5QhOcArrg0RMqI1PxfShEz7+ka0lkv7MFm0Qj63M8s12l9v5/b9r1j9Z3V52ZJ7BaOCAA4kY3yju27j/ie1M2JP5DVMMy8grcUza7M/DIGb1zoSZ8zjosBZArClSy</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX18dvSQioA8bbZXBmKNPWCxwHchn7izQU9COIhFMq1KX36lQNjZiYrQD//S8EmsoDReRaH5yElamMDA2wrD0xDVMM9G5Z9redIxAtPyF0Ag0NV2Z3sKCmzeh58n7mLUu6y10ygW+qt+uSwkbjaOG9780adK1azYqeGdIiLDyOQqiuo24zZwAa6iisZzP0Lykag76rwMfjhU3pav3rwswzF+zgm0uA83ezdnlD0H7eNxENQWFu+dWQSL+ERdiVkAMQ8tVCF4cxvCf6Pe35oFj77EIB30Y8y3wFVYy+GvAJOjhaIuo/FdNmwtMxm5u2ypO09dhXcHq4RQa1yKzVKqqX1sglTDW8V7qON2PN1pWynvzeBlMHWfNuDPNPT1ejb+nnIzY4yNqEOWEVRywe0vS1ICO4ft/3yEJF+s=</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX19eQZGX7pj68kIum1I0o+zBh4WPYNf8xq3siizN52bKew5l+nywF74gq5cAzJ9tkn51FYLRRTGi66vuDCqq1eOjCI7bum6vRtm8s4UcObcZXRpujZx2sDq/KIEiSRguShI3VOEhk+WmZqLqwG7tOqBNJZXz6lW+/oA7NRpChVvxhWFNfTgwOwZmPPjmhgZqTlVz5GdAHI0mYifDY6lyvD1aND2PKn5ZSmxWhPwzMXmVOEojm8tnNWreCmsh1aqrKA7+FCppwudh0gDp1iNrNhDG20sYZz6bymF7PoqDhOQ8vnl3kCBUxGfhbg5gQANqNprC09QxsEx/wdi+M7D5kzEuvLQX8CxIkzAqbkPVG3W8v/uR0QFFtJfz3Z7N/MqV3XCt7dInXL1k9ilnxmifWyUz8k0RHCCfoOnpNyQdcYjWKutaHCWi2gyZyd/NFmZWOS1nl40omEvjMg==</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX19X3MgjX8KTTcrESJoNSwdMSlfC20xYZa42RtbdCHOOY/xohgjv2dtNrUbhhBvHQqEazTNLBhJNlNQSGCVC1zcIe3TKFuDcc1o+OIirIDfGvYpS2rRl1SWPIP6SQSHhc+cy4+VlTbmrIE6jOK84QRtI8f0bEzx95hLWlkQgARy17z3SFtaUToyAGkBJtC85swugMR/lvLNwgZFEk0TCuCUsMs3rjpPdQUhE9Wj9K9sOFeVXB3j+0lbO71XA+P5P6w6bUfa3Be/ov/Prp4ngaazvuG/gO4caCV5/IqJzVLxzpotSgX7wFrZNBEmLm8kdWm1DfKh4muju8JQFhMeu7WE9l4aJ8nSXsUY=</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX19vF2FV0aQYAgE7L+9745pjetW0kMg3EzbL+IVHC27R1HpZ2zFDxVUMAKOuFGVJ8OXT0+XXOjrkMDv5u/Y6f/8wHxctZz1lW6H0sEgH/VPjtQ6meyZmuinIS+eq5TVZkTk9QUjQ23dxllHNba0kgTSStYY+4wnKeFafT2M17BXi45d6HU0ig4YmclM7dHDnxVHK/Z+bym7qCNQ2Pzz4mnNjMA0aJEhV3cOR0sbsvjGZ8XDiWyyqQvKROqOGp5tPk0n5IrBH4yWiH8/Qw8hcbIpvwoa5yO42kX0ILZ0YkUwIWvWoI2u8Cma6qE2I3eXaE6BlF81NxHQ6E/7woHHtVPQkFBSm9Dj5K2A=</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX1+v2CH9e8k+TdlapGKj+O/wO2ylWEfgkOmZHO2fFAxLjna5VA50nTtNUifZMfuMihNm+KW3Vp/DPYSM3OvJljKIcWILvxEnt4Uq9FYzHSk76l2SFXn9GWG80snjjvXZtQwX7Re79C8/X3JHFyUA0p1NsGXhSVwSPANVaoWqPGIO9VlrRUWyP36N5dkRXy17hQ8N0CeL+Lp3qPhwhazfOaOu7DewaLaS9LYzTnnJijJeFq06VMtnOcepIWm14H1wPOT5fw5fSP87w+CZrwCs6fDB7w1sgO3nlgWCtrswltYg+rdH3LWIu5aCfIV9VLqPTcc45MIOQTcLf3fXeK6ZZmMsnyCxFWY5U7I/9N8+B0qyh8nvQzHMjpm7Vq8kAIuEOVIgUYWtoYmxR6FAIKD8iT0zrF8itzvOF6Vte8AezZOradPp1nABFHOCRNl2iloWRXVm5GLWLpNyfUwfYZTZ3NiOzMIYFJjUKeg=</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX19UVYawAGmNToFy56xASB15xGyt4+Ehl44thvWSNfdqyFTGhHsz0aQhR3Z0wjCumkE3FGV1dwwe8hbqHxLnbJ2igAkhZCD9Pu4YQJ+sai/c3mHS2RWqr5++3bB//2RD4uMOvNv9ill6Cd40gEBzwBz4E/eKlKt8xe3aXUZsltM7D/+qoTqp7xMbvr/NPl+bwim4LUJu4umutGs0Xt255rDhGckL2qmJo4qM/S7bNDfrH/W8E6UcZ0FyLz+vuJG0YwedHloP/+lmLQUWwjGhQK5xl8VQ33hzgUzBPdb99wnlfQKLYJ4jYNKj7XPtA2qcR7sn58PT0vsjs8OjzDbsgvkZDStBFcK9n/NzYHRgLIrcudodqIT1IYRTRhJ5mADZppYERWe7OBRWcQ==</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX18VQxeyU6dxfSKRf/WHcLalX6DnH62kdRPfx0KBjjSzopcbJ7fc1f/msjb28WJX6nj+AiAG9v0cYJ7aKd/zHjrfB3SRnKEpaXWs+Hn/kix4N14UTeAkDo5FEUsyCu6XqNDBHlU+gDLWTzYX3bcY3DaZG9UVXoba4Q3jEJWJDedL42Eim4HFOnE5gUIbGwyz7+GCAE4njctTuiY3FpL0TA4WcI/fYTPowpLD7ZLtCqPXgs4Pvo34umBnEaTQucajC5jvvfJIa84G0fbVD1MtjvknJm2T+m5OrtaTg7EPOHoClgRNCefYSp+LpLWZ3d6weOr3NJ6+igv0+C1Zla52kjlDLwlfyCE/Bo+elQP6xJLjZRlZs8/cgfqpECd3TM5B+IXUYJEnD1bD5/Q4pvXiSMI+qbpakLMaPkYdH7w/SlqQueSWpOPMh7D3mKMoDfmo8q2GjLOYCjVSPg==</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX1/uSd6oYz/AMEPgHPLjc2amon7N0LXziHgeKMagBUQlnbder3K8r2geGkVIi6HvkoK7S2QaPfRdZqXKEQGAI7ohJX1P955fY9fgkD5keunwkq86pzZIuMJJ/TjEydLCnSxP2E6Sn+G+7gHG/7Clo+Hn1VnGCnAYh8Etw/pcxfzyE5c5YJpdQtpIWHxowWDP1+y7WGANO+H1qQ==</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX19pVFiEFGr+okGR3DwaGQRgeHdGXpjw4VUK9xa0KlweeGwh3FMR3QoANLgsNWRuwDHrRafszy90digd2jmAQyBN3iwLMoIkK/lraSwhNIMD/Fox+vsCEHHcDhwRD+XEFreFcoVxCsRav3DDT3GwCkwpu3HMku2sWJ+VZF4/075wIvi+6DN8j46gTe0uXl59ZBOwleRKiDjon5mMq1KTl3vMn1rKvKzyLflmyrXLM4ZCvcvI3vxdQ6bd6D/+3mbvJt6KYZubNl//Qi2YZ/nBsntb7U+PZKlpwDO8lpNO3O4d+UTvOQAwoao3YRrKY7AvJ+SyNTTYUbTiI2OGIoqpQMNirm36S/effJddVLJn9KZInBPXlAYJoP0Uv/zhNklnQdYl88DMxfMRHPbUA4fobpuSwz5XYPOlL6MxhpA9+CQppZ2CYcuPi0K2PZLyerGnyI48wbr+XR3B/h7bi3gXGS3O1MQZGX5Vw6kiZf3iPtnzmBO8RHoeKEaq8+MvM/V/VjV0sOrZLWOJ02KFi6Nx3Kl1rVruaNuCPLOBdolSjKvCzILvR1kx5W8FvrEueogX9TcTNYMQ3Xm43lG1s1/1wf3aoOI/tIA+FQSrPqJ4N2wk5ROCoPplc/KcDVaUMKE1ELkMWW2B9b1Pi7xa/saPjYStUQoqGM31A628kaISNc0mEtg7LPxZ144nsSjfYMpuWWIXyEGe4xbg30JBo/npQZOvmDW2eDnf0xACUBr8x7YJtso8sgbOm+6RQtYTNUXO51sWYHL47vmXMEB1KN9AvG7FsDrjyAIDyjjhX7nVjKcr7uJDTjLA8Ka78zX3DZAUPT3Lt3KKO/ZnfGziSglchoIMQo9rm1IB7u4v8bnpK7wTxyTufjHj/WEkLLChtw82rLDqSFvl5PmiY1pULRwNU3BwtEpkLLuvBjpOH7oDKtY8i+SDjJQWKK2bMJd581Ym6+TYEVVOu32mokZqXuzBAvxVgs7pT3Zr/NfJbfJHrMzAfXZXAbbo6jbLROlSBZR+M51fY+qySslWKL+aIDurEiH5wYHkWzKs+hdiixcNhToD6atdnMwsjbVE</t>
+    <t>U2FsdGVkX1+3dKVevizvc0bfl2VOldCMb0Hk3oGegSXE4NpFNBP8hoavvTsy6dw3IbPP5Fu1Mo6UcVMOuQhRIcSJ6OoQzj6mcdG3yFpQ5YEz4A6rZl3/ldKj+/aZz/pPhXN0BsDNFmwkR9WYewOsmxpyQ0NO+Rts6Qv8pCz+/t9VXo6K5aIqAy3VjjcZ26gidWy2wmFmf8ZHGO758beQ7iqrW8A+WAR5GlLvxE2Bq9TsV43LIzDur/FO8sUJnEmawmoxp0uVo3Ju7HJxipb3rO78j8uE5zsxMi33a0b0gbfMJeOTG3YvF+YlpZoVjg5Siz/TVa6pXAgLvWICmGMkblGtJrwqZ9JRrzia1s8B8DDrsZUZmqocjnwagcQoiguXDN2WDTXy1fGaK/ZgDKjYJOaIr2Yb30Rh5+AxvQDikcY5WFwDm2eQFkyaclk3QDs40KSdPc3V5jAE5mSZ6prEKnH7BkNkChfe+Dhsps3zT3TU3ZLx7V+1PD1N3I/sfx9mM6sC9B+0Rx4ARqBh2e92id0IIl6+GAHjU2bXCQGdmT5d/AZu72JFT28hix9BON3XghhxRLer++rc0xKPMjMb/82AxlkGEVZwPb2eTXiXT6s4gHjfTYu8Bb4V42DrjR7MnBnn7SCOeoTRWFfmSbFIspK+H8BEmDLeEBToVcAol0dI0C4eIPOiwJu4WYO8nCLIwbYKupRZzHdixPYFwCrpyg2Nd6gpiTwBhPxEyjUCRs/EriGP0J+PEffgVA3OuBtbt8tHqzIOeEX8QSEpQp5pseQTy27DE9mAeokjoboXJtwjy8y39hnrnZt71jd059MKjzSvbdfrCWPI8xu0lpuwH/5n33+AbNiNVgbDOLbAkIFgKepPtn9w6pB4Y3CWsHHRfEB+ZmTIUrETSOl6RakN2j1k7g1bgzi553oKQXe0P3haKIWXN8B8iBJq4zmJZNsu3mnypa1HtKQp6v0IXQ7GQgs6sd8x8aAt8oL+Ab3Rh7znNcIt/dWsE6Z9O/PDRiOUYQpAnraYQhpYzt7XAw8eC32dIkYL1g7eikM2ttaaqs1y3J6yMVoDWLxvvAELcREUxqDhZRfECaNjs9jW8RiSw4SrpnO1LSxlXocRLfydt3m4F5/vT1P71gcOEWz/zeYFN0uAMoeStJe504O6+4fA78hHH8H0dMIszQ9YvsokUCMjpKVm2oojbskrZ3fuwEgkwbKTZFPYzKm+WDcisNVlITPVmMD6GzZWTZr4ANNE96BFfRWKLtZiSUxjeaAQZ793M2JokmgxxbwmZDrSQIbKI6q0QfbhRQv68SOmsiNKU3g=</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX19n8cfnv3oO+w3jWYd2WBYQfROoheIgxSp21K06arsG5J4EjKqVUYLAQLz3ravk/4j0kysePbk9JhERUpJwh4xR5VW1grALBMCGAqnLgSzLOt97JVpovoZNu7fU1s0WRSV5uOTOQn10mpAdri6W1mPIKdgdnMnNz/r0ATQ6oilAj9uQ5coyu3ioNrQB2vNacHWLtye/g104eTPfSYVQ18Mq1E/Kwhi70SaNmulyisLQBsZiFVoRo0QZNTXd/TDZS/CDmqws7KiKQIW2eAgToDfPJzfEKkdjfyV99CLwH0Xatmqz2YyCqi/X</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX19FGGrtZJwszYFjQBgqvfQtIb9RMSuEMiOPMp8liFT/vFATBcfy6nwVtj36M2T4JQlT9RcMnq0+AfkXya5EnJ30vzJR+eF5mY33WK72S1xdoXv+1FDBmcEsexSx/al4EwOGMgamLQMWLG9u5M5rYlzeR0qyNtndbvYSRhGDajPekbAZ6x+rvafUUJs7sUYesEngjCwc/I5fSZJtK1GHRM8Zq6oW7pv/MvQ6sQ0ESocTwAoLa9dg0/tQV8QSZ3Zy/5OLyWMLQAc6xL3ZG1THH1v9JKKhfaROPy1zUVSgRe6UeylYoVPkCffCQmDLnR0KwKwwXAWlu0pmo4DscaNUjqLISrG2g5LAu/+JyO44pm+Qjx2uor2PpNJFaXgjh3HHaiJkUro84p2Fe1u6AI4oBQf/5BUgmQKasFY=</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX180nhf/T3qpAUF4zPLvW+24gNB6ymbZL5MBKZ0Vq5ofo5isFxEJfw4e8L5tcWADBtJWHputdHQzmc1CsCv0BjuMkvo6erGKTVFShF4nDRpmZ5R0PmSDAh5zk+EER9Nl18rkZEBZMps6B9++y9wY7HGJqiSe0MfllFzspPaxuQz6dC4OQiGnMq88Y7y1ZF6fugHauLC87MI5Rz5syZXVMo8PPcBLz6GsuUxZygdJBmnNMxaJfVHMg9I5zEPPXDJ0h18HCY7X91XMdz2zVSlhfzWCZQ8jtAcXbI1DFZtHtH3oj+cLJuxXZVXrMIwcTt/yrm6rYqDoF1fg9lLQKrF0OFaFvktptEpXhwk=</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX18E3P7KCUU31/jHKzdeU4AXuYsevSFHXstMm1Tz6sMxNnT14pGo1EN1s2aDfhim0FFfc1Nvh/+iaqMIhRmmg1rS5YtaRCTcH45wCvSzwdgJtguERBTu1K/rhoxvkxFcGkAHLIMVH8n3ylHTkdpZhJa21fBD5x4ln9d9ONibqI56wzTCGgN2oBCNfLwM+jPfQebRiFVcyIVsHiS1LX9Kzxsje2va43c/dP86+teG2cEXXNVO0Pp1Vlsdi/26/1+y7fYSjWoKTL919hjC7OmjYaD52Oh3Z5yvJEpyiS9DS3fKgsby/eAvBU7W9bgImxELXxMuhDqieG5FFp/1TYsOK8IaSBvcLxVD9teb4AjrwfYCSHBoYUOl+DJvfqE2yuOAbSnf09EsbNtvGza/P5ddlHkv2tFvI/ieTrPa1kyWR542LJSwk1aVxkRv</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1/TGDin9mbDEc3uwkNfHQuz3WWNbu25xFQPWeHlr6MYvjVnaPxuZUrAQLwQNXfudREifZ7d4VP3MJwYQdcPCaUgCc8FkOBy/q367XrFIDYZt9xCYJJlldIyFym9nFdgtS35hgHVL6vG3PuVrzWJ8g2cO18Rq2DMCZs4pbQWaz2YcX0EavkREtWLsp/d8lTh9TgzJagRM5R3DvfRlFS11pEfAUT7iFc6paX1GEMbMdOOV9kkm12Nn5oiDqKyeq6cEnQ4ZhdnIMCydfW1PPMHmQg79+aSvGAs9iRqY3jj4qotA4DXnDh9sLbBNO+kWSVxKAb7yYp8fu0v6hhK6Z/aah2SXORVoI/RFBsu6+VZAkKliJLotJEDKfMB/Pt9attdApfURd3HXyvdNa4x15+MoZQ5M0k+fcwxKUs=</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1/NfqEEEPG4SSdlv17Zbt9HbJq70zFRZH964h1oGS47LKKpDW0aiIYUddht/OeOvw5COvE9TtBWSB4b7DAG/t0qwHtwfT6Vly+W9KvPProluyccmMZkpf10ABeJ0bsb7BGguYP+FRLQrqWMjq40HlUnZxeZc9xU1wf4bXin1rxomEeFszMe+P6FWBZ2jyNdGl7iHeoDzAQ1aNUUOeZM4jnh4MHywCbiVDihEP6M3POwfB0AJyjiUjv/oRTk3JamIuox8Lc+TQYj/JrikrslPOVlAN7CVjQGKrYOu05zMSscP27+gYWSn6uF0p4ZvXZl0/oBQZFV2pben3VznLdRgiIihaaInHl6agx9tp7U1bC43cTQe4QvJiAH5lVAYlejFbuXSsWg7Mp1tAa6nB0v/+1W2xomdzISYKlaZDkrw8JZjGjNqKrDQKdhMjWQWEBYyaqs0ngk4kTaQA==</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX18UMpLTPc7sPUU7apCw7VJmlT0VPU8UJmb5lqrkrsIsZImm5wRUmqpqWssm6reKpp76lLWkJYXg1I0/GeO/fFCskVCZXw6rkFQVx5HGteWnEGquxrYrkEfO4rOpIF4ZPHWuKYy4oARvj1ZJN8MN6CXm09ZDYWTnOanIfiu28bHbPqilgurjtSd4CdJ3San9ep3kjpZ+F6fYndEJiwtseJUCxgzWnYHy+1i+eoJdNr+yH0pcsJlm4HHjAegG7RWygAT6syYg181A8+vsW98dDHe5E55/CH/DO6azFVofcDRdpFteZFWtkJSVpCkxMvGwiyGByaM9JBc6F5M3KgXi1z5jA30fr4N2T24=</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1+5YacVX/wyxADR8QQg+UoIVy0uqmvmLmoa4jjfIu7Sn4/sYmUbOpjoiRLnT3vFNYyOK0g5sXGyweR09UVWF52BHHVjjK6MjyTX8MWgQYRk4UQMX3HPUbk7E3e1uysyDRJKCjX7hBRQiNim3GxQDGU/NJEmZayeMsgZcIZxZg+df+/ozyh0j2GJx4Ak51msvp4m0TCoIcYP6TIzo+pWM915Q98Lpl87KcmYx5u5Jc2OBnire3U5f/q7eOBmOhWusmGQOmad/mk6My3Vni5bDOOYKhcuRKUbts8MkIKDUToK7qSOTBPfRany9ATceJhNXVS6qlWd8v2i6evuEjj+QNYVTwkXNIH6hyc=</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX18f0Wb9zTuI+EKC2VXsoywtlTRzOzOC37w+ZGRytVdPdUafP+CEXow0cZdFBbaqjnTBDpm0pFlCDkx+SnKe3kUuPwiQP9faUXKpT0lPVDde7MfQkzyEYSSHarBzS+IPpdlH1jNRZP4nxW/QG77laEE2/cbdhZ72FM763ctNVIBX4dmoJjtuHHJnfOB45vgqTFf7F2BxtZup2PYPZgOzw2MCt91LCFvQwiu+fxtm/cCF5dw6c4fg6Hbor7ATnLb9oGVdne1KqBLij+GDZT5/XV7nHqrbHmPHD9rtaM+OpwJ3tZ/42RX4Wsow7RzjLCMYQp+lIVhPhDmnF1deSYWUFFOCuofYLw4rcso32PQqW5CZvRf5NVPJC0A3fYgbyrEPJtXUhXDaV1z1NKQA+Sx9ND7uHdU7GBETyG4z0H3OqGKtsfC6oyawZX9ZST2ma/1H4ekok6yqq4BJSbUP73kd9+geMFt4pdJNLYQ=</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1/4WaGlQs1jxB6VFXWbr/mwyjqqmUaXvANscgaB2b5HwkPB0IXh+YqQ7qS0ljlzzpu0CvMtefxc0BVoNr+D4PWniigFCO3p5T8xCyXQiz/pfg0cXW1rqEBqudsTcBtWfMOergQqHJhrBFCSYvflyhppJOlQYyAQ95KyzX4hi/+1r3hU6otcAGf1Eox7HY5XCFdab01jStuND1MTHqemfZL34WnAxG8a0afNHF/CcmHYYHVXLcND3jvHzll9VaSa0VWWrl5wQixNXuYPN1TA1I5mNjuLD2uncNTMUnreQq35QCxiKwOvdMCDfRZSPkPlVNLNzk6OOBthcqnKVvIcjWbiNodipklzooinG6Vkzyp2FcHhlbRszJrfxh8Tzbv+/96afDfHERvPgg==</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1+ZHyL6mQAnekai8147qb3wFc31whMU5vkhYwwWOyKsPT8y5HB6XlP0Ox9J8hugvpxHbfKH4rBZAJeLTCrYPuoncx4JvQ0dkTus6DPzBvMBN9zk3DaYTmWhL93inxz2wX7yRYiE6ThELTI7cyQIa4ruycFIpR0/9bfpC9sXUm2aMk82bxJM1051O5wMshwxmakfTBZJAGqGz1GY44cmX6+xYc2DRZ5TgIBZbiwh2ad09vP4aAQvo6Wsia2v/pBcnQjNKEi1K3sa+U1iLaHX8Wq4c+hDMrAUA/9ptlz+/iT/3J4bYEq+mtExCb7CuAE+KcTvwoJeK3kX0A0uJ0WmMjMQN2QCt5f60EPlTYiz5gug1hidZ2FiqV5tblHdMfuImQzk8PbAX2muiAxWNOQZZjYXlog9U2+WOq14/luzxYKr5dc6b3wajzDeqkio2CqeXXeG6TZ4mdqhtw==</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1+8/pq/YWCCe6jCHZT4onIF2S1VkvcqbAFYi7UNNvJLYpi3E5BUDImagmbc2fFaaCtEBOX7Tn0lF0N79y0STIQv/Gdfk4NJ+JSweImSO8flRQmACUjJNpdwXSHdf1j0rV3M0SKIqgc890HeOfI8TPPnsf7W4DpXxXTj1YsYpvoavE0yzjteU1oXkbnD/DgClvdlWF6DJ7tvouMBUInEl9jkszQX5SAkR090/gRH7fLeqa+nvLUHH+0qeTcIVkE32Hi+EEQCmET8cdDKFTSfh6BuqPyJ2enybRKY1bZn4sb2hncxyhm3So3i0otkQAHRmovv9LTqAuHgV6MLMEptd21Hr0UByJYmxk01G/60S9VWZkAl+9EtFbKnSCd+JiyIdm0Xtz5SJC2o9PRWJkAi82n2Kgoh6TlGQeW4Zvk7fxJMpei6ZkpecQ8C+QrGzHtpW4xSvfZhb/krGaA+m5JVkdqcqLp/d6Hv7iCgU66H+HzuxzlpCcU+7Zsk7SDAZ2CeQGaopMrRltD9s2F+TATkgiy70kDhcFtOdg3ZmicIyCnyyDh+IZAy88yTPqTi7XEnLiCDaFjQoc1hFz3g05sVx4ztyAEQKZmWkX7fZ5pjBpaa7amyfNy/Xd82Rf4pknE6m4AlSOWp1E/URVsUnarcbNPldnGuQaiWhX4bSCT5lVvoEyWCtUFQy001o+CarwzY5TCv5ZkWuodTSLYoSI/dmmuPFeAAHo+3Rxz1daufRD9AzZZPjU5dW2S4XY8Ci7m6vifti+nI31M365sA/sse//iOItZc++0RBe8EhXQDmDjzFknSPg7oE1ad1f9h9LoRNqsSwwbdQv1dKtWe9IM//k9/R0Gk83B7nRAcOSA3CLrvwnhEiulMLDGuJJxG/twuBgQNH+FIOsWneY/dGME/4bbas3UvMozxMzGCLc1Z0CJ8CaMKepL9Cb+aH1wpJbIe/yP+ou4QtOFCa4Eui7FUBEQv2Ae2/2FU82fOXhiPkvofHWDHLVJHy8WPGeIyO/69OelTLZiPyvpriKLNQ8PYZ5UmR4Efg7GSKCEU6QFNb4wqbeJLoJMY1CqZ</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1/jGCUEsgUqGlPRYrIeKcMBgPrZD90x60IDKXyEFPvOLrofsesQFqAwB7DAi4z9JzZphu/W5HWbXh/U2Gu7eLyJS3SzGdbyIFaBucLqlzAkavIloGHLS5B1ZSTI0Egse0xKUYahtuHsthOV0Q2iDb4V7FnU1EX7eIcCzYg1c1GnZF53GiXSxC3JpHV1RLpPWodVCuuI4jis+g==</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,18 +474,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -509,7 +509,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -533,7 +533,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -541,7 +541,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -557,7 +557,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -565,23 +565,23 @@
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/json_max.xlsx
+++ b/json_max.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F06CEE-8D27-477E-A200-6D7E6EFABB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B99EAC3-EA1C-4F3C-9617-187601FE2178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30540" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>U2FsdGVkX1+3dKVevizvc0bfl2VOldCMb0Hk3oGegSXE4NpFNBP8hoavvTsy6dw3IbPP5Fu1Mo6UcVMOuQhRIcSJ6OoQzj6mcdG3yFpQ5YEz4A6rZl3/ldKj+/aZz/pPhXN0BsDNFmwkR9WYewOsmxpyQ0NO+Rts6Qv8pCz+/t9VXo6K5aIqAy3VjjcZ26gidWy2wmFmf8ZHGO758beQ7iqrW8A+WAR5GlLvxE2Bq9TsV43LIzDur/FO8sUJnEmawmoxp0uVo3Ju7HJxipb3rO78j8uE5zsxMi33a0b0gbfMJeOTG3YvF+YlpZoVjg5Siz/TVa6pXAgLvWICmGMkblGtJrwqZ9JRrzia1s8B8DDrsZUZmqocjnwagcQoiguXDN2WDTXy1fGaK/ZgDKjYJOaIr2Yb30Rh5+AxvQDikcY5WFwDm2eQFkyaclk3QDs40KSdPc3V5jAE5mSZ6prEKnH7BkNkChfe+Dhsps3zT3TU3ZLx7V+1PD1N3I/sfx9mM6sC9B+0Rx4ARqBh2e92id0IIl6+GAHjU2bXCQGdmT5d/AZu72JFT28hix9BON3XghhxRLer++rc0xKPMjMb/82AxlkGEVZwPb2eTXiXT6s4gHjfTYu8Bb4V42DrjR7MnBnn7SCOeoTRWFfmSbFIspK+H8BEmDLeEBToVcAol0dI0C4eIPOiwJu4WYO8nCLIwbYKupRZzHdixPYFwCrpyg2Nd6gpiTwBhPxEyjUCRs/EriGP0J+PEffgVA3OuBtbt8tHqzIOeEX8QSEpQp5pseQTy27DE9mAeokjoboXJtwjy8y39hnrnZt71jd059MKjzSvbdfrCWPI8xu0lpuwH/5n33+AbNiNVgbDOLbAkIFgKepPtn9w6pB4Y3CWsHHRfEB+ZmTIUrETSOl6RakN2j1k7g1bgzi553oKQXe0P3haKIWXN8B8iBJq4zmJZNsu3mnypa1HtKQp6v0IXQ7GQgs6sd8x8aAt8oL+Ab3Rh7znNcIt/dWsE6Z9O/PDRiOUYQpAnraYQhpYzt7XAw8eC32dIkYL1g7eikM2ttaaqs1y3J6yMVoDWLxvvAELcREUxqDhZRfECaNjs9jW8RiSw4SrpnO1LSxlXocRLfydt3m4F5/vT1P71gcOEWz/zeYFN0uAMoeStJe504O6+4fA78hHH8H0dMIszQ9YvsokUCMjpKVm2oojbskrZ3fuwEgkwbKTZFPYzKm+WDcisNVlITPVmMD6GzZWTZr4ANNE96BFfRWKLtZiSUxjeaAQZ793M2JokmgxxbwmZDrSQIbKI6q0QfbhRQv68SOmsiNKU3g=</t>
   </si>
   <si>
-    <t>U2FsdGVkX19n8cfnv3oO+w3jWYd2WBYQfROoheIgxSp21K06arsG5J4EjKqVUYLAQLz3ravk/4j0kysePbk9JhERUpJwh4xR5VW1grALBMCGAqnLgSzLOt97JVpovoZNu7fU1s0WRSV5uOTOQn10mpAdri6W1mPIKdgdnMnNz/r0ATQ6oilAj9uQ5coyu3ioNrQB2vNacHWLtye/g104eTPfSYVQ18Mq1E/Kwhi70SaNmulyisLQBsZiFVoRo0QZNTXd/TDZS/CDmqws7KiKQIW2eAgToDfPJzfEKkdjfyV99CLwH0Xatmqz2YyCqi/X</t>
-  </si>
-  <si>
     <t>U2FsdGVkX19FGGrtZJwszYFjQBgqvfQtIb9RMSuEMiOPMp8liFT/vFATBcfy6nwVtj36M2T4JQlT9RcMnq0+AfkXya5EnJ30vzJR+eF5mY33WK72S1xdoXv+1FDBmcEsexSx/al4EwOGMgamLQMWLG9u5M5rYlzeR0qyNtndbvYSRhGDajPekbAZ6x+rvafUUJs7sUYesEngjCwc/I5fSZJtK1GHRM8Zq6oW7pv/MvQ6sQ0ESocTwAoLa9dg0/tQV8QSZ3Zy/5OLyWMLQAc6xL3ZG1THH1v9JKKhfaROPy1zUVSgRe6UeylYoVPkCffCQmDLnR0KwKwwXAWlu0pmo4DscaNUjqLISrG2g5LAu/+JyO44pm+Qjx2uor2PpNJFaXgjh3HHaiJkUro84p2Fe1u6AI4oBQf/5BUgmQKasFY=</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>U2FsdGVkX1/jGCUEsgUqGlPRYrIeKcMBgPrZD90x60IDKXyEFPvOLrofsesQFqAwB7DAi4z9JzZphu/W5HWbXh/U2Gu7eLyJS3SzGdbyIFaBucLqlzAkavIloGHLS5B1ZSTI0Egse0xKUYahtuHsthOV0Q2iDb4V7FnU1EX7eIcCzYg1c1GnZF53GiXSxC3JpHV1RLpPWodVCuuI4jis+g==</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1+OSmLAeytfRFMzwftOg7BmHQT6GYLtwb17ew7I/rZrHXM2KOujqXwc/aBvndfAz6U5ltHv8g67vD7DOQSPPIUTYK2XM/4+XGMNqlxtciFXSfm7nytpBIQOWC3qB+e8ZqUaPUkacfkVQa3MwERnX8LBaNdq3C5bGlqDxO951iCgbOLjn+LuohvCFk0+u4F9shF8B/yPl2YJOZpzSQaWk8hmd7zfHrNOn6aUBWGJi7EJicqJX19/EsyqniFCxBAPKnUs6R3AanXuIXsKGPAwomOLZtwc2yQm6+GHPRacQ0HoT3LEfWC6VjjRWvNWV31EO26KUM3dWj1VRUULSQjlUzOWgYr+8solE0oMz8sxIlda08Bc0ERV4w3t</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +482,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>

--- a/json_max.xlsx
+++ b/json_max.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B99EAC3-EA1C-4F3C-9617-187601FE2178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E187FAA3-2B01-46C7-847B-AE1EE6236365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30540" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,13 +111,13 @@
     <t>U2FsdGVkX1+ZHyL6mQAnekai8147qb3wFc31whMU5vkhYwwWOyKsPT8y5HB6XlP0Ox9J8hugvpxHbfKH4rBZAJeLTCrYPuoncx4JvQ0dkTus6DPzBvMBN9zk3DaYTmWhL93inxz2wX7yRYiE6ThELTI7cyQIa4ruycFIpR0/9bfpC9sXUm2aMk82bxJM1051O5wMshwxmakfTBZJAGqGz1GY44cmX6+xYc2DRZ5TgIBZbiwh2ad09vP4aAQvo6Wsia2v/pBcnQjNKEi1K3sa+U1iLaHX8Wq4c+hDMrAUA/9ptlz+/iT/3J4bYEq+mtExCb7CuAE+KcTvwoJeK3kX0A0uJ0WmMjMQN2QCt5f60EPlTYiz5gug1hidZ2FiqV5tblHdMfuImQzk8PbAX2muiAxWNOQZZjYXlog9U2+WOq14/luzxYKr5dc6b3wajzDeqkio2CqeXXeG6TZ4mdqhtw==</t>
   </si>
   <si>
-    <t>U2FsdGVkX1+8/pq/YWCCe6jCHZT4onIF2S1VkvcqbAFYi7UNNvJLYpi3E5BUDImagmbc2fFaaCtEBOX7Tn0lF0N79y0STIQv/Gdfk4NJ+JSweImSO8flRQmACUjJNpdwXSHdf1j0rV3M0SKIqgc890HeOfI8TPPnsf7W4DpXxXTj1YsYpvoavE0yzjteU1oXkbnD/DgClvdlWF6DJ7tvouMBUInEl9jkszQX5SAkR090/gRH7fLeqa+nvLUHH+0qeTcIVkE32Hi+EEQCmET8cdDKFTSfh6BuqPyJ2enybRKY1bZn4sb2hncxyhm3So3i0otkQAHRmovv9LTqAuHgV6MLMEptd21Hr0UByJYmxk01G/60S9VWZkAl+9EtFbKnSCd+JiyIdm0Xtz5SJC2o9PRWJkAi82n2Kgoh6TlGQeW4Zvk7fxJMpei6ZkpecQ8C+QrGzHtpW4xSvfZhb/krGaA+m5JVkdqcqLp/d6Hv7iCgU66H+HzuxzlpCcU+7Zsk7SDAZ2CeQGaopMrRltD9s2F+TATkgiy70kDhcFtOdg3ZmicIyCnyyDh+IZAy88yTPqTi7XEnLiCDaFjQoc1hFz3g05sVx4ztyAEQKZmWkX7fZ5pjBpaa7amyfNy/Xd82Rf4pknE6m4AlSOWp1E/URVsUnarcbNPldnGuQaiWhX4bSCT5lVvoEyWCtUFQy001o+CarwzY5TCv5ZkWuodTSLYoSI/dmmuPFeAAHo+3Rxz1daufRD9AzZZPjU5dW2S4XY8Ci7m6vifti+nI31M365sA/sse//iOItZc++0RBe8EhXQDmDjzFknSPg7oE1ad1f9h9LoRNqsSwwbdQv1dKtWe9IM//k9/R0Gk83B7nRAcOSA3CLrvwnhEiulMLDGuJJxG/twuBgQNH+FIOsWneY/dGME/4bbas3UvMozxMzGCLc1Z0CJ8CaMKepL9Cb+aH1wpJbIe/yP+ou4QtOFCa4Eui7FUBEQv2Ae2/2FU82fOXhiPkvofHWDHLVJHy8WPGeIyO/69OelTLZiPyvpriKLNQ8PYZ5UmR4Efg7GSKCEU6QFNb4wqbeJLoJMY1CqZ</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX1/jGCUEsgUqGlPRYrIeKcMBgPrZD90x60IDKXyEFPvOLrofsesQFqAwB7DAi4z9JzZphu/W5HWbXh/U2Gu7eLyJS3SzGdbyIFaBucLqlzAkavIloGHLS5B1ZSTI0Egse0xKUYahtuHsthOV0Q2iDb4V7FnU1EX7eIcCzYg1c1GnZF53GiXSxC3JpHV1RLpPWodVCuuI4jis+g==</t>
-  </si>
-  <si>
     <t>U2FsdGVkX1+OSmLAeytfRFMzwftOg7BmHQT6GYLtwb17ew7I/rZrHXM2KOujqXwc/aBvndfAz6U5ltHv8g67vD7DOQSPPIUTYK2XM/4+XGMNqlxtciFXSfm7nytpBIQOWC3qB+e8ZqUaPUkacfkVQa3MwERnX8LBaNdq3C5bGlqDxO951iCgbOLjn+LuohvCFk0+u4F9shF8B/yPl2YJOZpzSQaWk8hmd7zfHrNOn6aUBWGJi7EJicqJX19/EsyqniFCxBAPKnUs6R3AanXuIXsKGPAwomOLZtwc2yQm6+GHPRacQ0HoT3LEfWC6VjjRWvNWV31EO26KUM3dWj1VRUULSQjlUzOWgYr+8solE0oMz8sxIlda08Bc0ERV4w3t</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX18+TC4UCMpCkhFgnQzoZ+/CmQRBeaZnfaKYcFRJ9rY9kf0R9bXogMsEL00zgzEZew3DIvIomjjVRSKvRSS/HyHc8U09fI2oLkxztiIZkd3FmeAb2BB6JuIsByrVECQGPjcxX+X6yUNLlKmrMUmZt5t7MxwNBkEATnW6BCmTm98N0VIQRy/TJv8pn0SJywUHIp1RLEOhWuwqB+8ucv8IpNEb9frvH0QnnKrp557YEOOvffiL2jVk5zl8hhJSnI5FJbINZfSstRTtc1x0zWK1ZrREArdULdcHIQ3TLdvVBhIBO2mNFtBLsllH/CSe9d86B63Zk6UT+Vc8yX0kvp2AhuYM4xbkYBw/o1jY8N6MS6zOx+qqo1pOhCfzK6oiNyk2LOUqKPErkW1H3I6DaOd8zDO/DQLqt7xYqjLXZF64unR5dDPDf/LfzLPRbYflmFE5teZqhfAAj1n3KbNBrvUE7YU7YHw3JzWrYNWDOvVmm0fDP7bnueJ2m2irPEIN67PiB1d5ZIeuRRkSIJNgkhvB/e7fgHXberbT9rlZg8mUVeEzVG11d4ViPkI+2SW+gt3cIwdlzvaTfyHuTn+wJDvmGx6goJn+tqgbAnfEz1i4jMXtcY4EwxEC46ETxeayosdDIxX5Iswu/YvEeFfVfHCCAgg0IY4M7p/QJZ/f9OIf36RozLKjJEPT7BAjT23DwF2hD2JSNv3QkwbA29qKE/wdOu5zg04U28u1wC+Cr7x7HQthhDAsjzrNDoCJN/l+MmwCtTgKbWoO4noc++qEHoDsEj4RC7ZOkz8rw7Zv4PmHb0kVkrbNmyl8JAOL4xxZfUd66hq5OsfvT4zm2wer6Ms+KgNv1k6Pb6tFXDyTUcO8UJuTpKLUUV3RrWiLboqwOUk9Cp6cIx7KtIOiJxiNg87wojt3GCpGnrUyoEy2zDdMlJjw93R5smQTWbJjRQsngrbdxVe4fq7WN3fzmFwl6gUPSiBa3EiBXqahawWZ8+CbbVVqrTSnNkAHqLb3pqOL8WnstW5B8oNGZ7jIYR6u09A+Rx9WEUZrWwC4pHck/+WGJ4Ju+q4KPhpb00WiHGJxrB+QGxNmklMWLH3TJ/W86YZ8KeYBKs1hIuUkyT1q2nzG4DAL01qeZWjMS9+SEqotFuN66KEKgNZP9kiiyUPHsnW6R+nsGfPpq6W4NJ8=</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX18Rr+03ifZxXwdu3Mn/Fgy5/xaYeGjU5RiNgLJZvNUVqoxiTeAcOZ+zP5Y30vCpUJ2wDQwmy2C/tHqWLM4a/rKFDGAtmjyUko3yWOWX1m080s0pdr0iCNSNz6O1kRsMGFtPKhPJiyGWVYj8KBwLYUcREYdL4dSZV+ezwi25wN1A+pUvFt0FPXgaCm/GkR08tHSZiPLLmzIAuWjcYAVFLEYOVbLKans/tFI2eYtPtiCRZr1GRFMCkRJX</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +482,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
